--- a/medicine/Psychotrope/Lalande-de-pomerol_(AOC)/Lalande-de-pomerol_(AOC).xlsx
+++ b/medicine/Psychotrope/Lalande-de-pomerol_(AOC)/Lalande-de-pomerol_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le lalande-de-pomerol[1] est un vin rouge français d'appellation d'origine contrôlée produit sur les communes de Lalande-de-Pomerol et de Néac. Il s'agit d'une appellation proche de celle de pomerol du vignoble du Libournais, une des subdivisions du vignoble de Bordeaux.
+Le lalande-de-pomerol est un vin rouge français d'appellation d'origine contrôlée produit sur les communes de Lalande-de-Pomerol et de Néac. Il s'agit d'une appellation proche de celle de pomerol du vignoble du Libournais, une des subdivisions du vignoble de Bordeaux.
 Au Nord de Pomerol, cette appellation a toujours été dans l’ombre de ce grand vin rouge. Cette appellation est plus grande que celle de Pomerol. Les deux appellations sont séparées par une rivière, la Barbanne.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AOC a été obtenu le 8 décembre 1936.
 </t>
@@ -544,7 +558,9 @@
           <t>Cépages utilisés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le merlot largement dominant, apporte rondeur et finesse. Le cabernet franc donne au vin sa charpente et un riche bouquet ; enfin le cabernet sauvignon, moins fréquent offre des robes veloutées et de grandes possibilités de vieillissement.
 Pour défendre ce savoir-faire le Syndicat viticole de Lalande-de-Pomerol fut créé en 1884 afin d'unir les efforts des vignerons.
@@ -578,7 +594,9 @@
           <t>Principaux vins de Lalande de Pomerol</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’appellation Lalande-de-Pomerol produit des vins très élégants d’un rubis-grenat foncé et d’une grande subtilité, avec des nez intenses et des bouches parfaitement équilibrées. Ils possèdent des nez très expressifs, marqués par les petits fruits rouges (groseille, fraise, cerise, framboise…). Avec l’âge, ils développent de délicieux bouquets qui jouent sur des notes de pruneau, cuir, gibier et même cacao.
 Après une attaque toujours franche, la bouche est solide, charnue, ample, veloutée et parfumée, avec des tannins biens présents mais jamais durs, car leur trame est très serrée.
@@ -647,7 +665,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le territoire de l’AOC lalande-de-pomerol est situé à une cinquantaine de kilomètres à l’est de l’agglomération de Bordeaux, à proximité nord de la ville de Libourne. La zone viticole est disposée en terrasses successives et couvre deux communes.
 Les sols sont constitués d’un mélange d’argiles, de graves et même de sables dans la partie ouest, à proximité de la rivière. Dans certaines zones, l’argile est présente sur de belles profondeurs. La nature de ces terrains convient parfaitement au merlot, qui représente la majorité de l’encépagement.
